--- a/feedFinder/scripts/sheets/collect_data_sheet.xlsx
+++ b/feedFinder/scripts/sheets/collect_data_sheet.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -99,18 +99,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -473,272 +467,257 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="14.71" customWidth="1" style="4" min="1" max="1"/>
-    <col width="27.72" customWidth="1" style="4" min="2" max="2"/>
-    <col width="16.32" customWidth="1" style="4" min="3" max="3"/>
-    <col width="10.71" customWidth="1" style="4" min="4" max="4"/>
-    <col width="27.72" customWidth="1" style="4" min="5" max="5"/>
-    <col width="75.73999999999999" customWidth="1" style="4" min="6" max="6"/>
+    <col width="16.71" customWidth="1" style="3" min="1" max="1"/>
+    <col width="33.71" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.98" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.71" customWidth="1" style="3" min="4" max="4"/>
+    <col width="27.72" customWidth="1" style="3" min="5" max="5"/>
+    <col width="86.70999999999999" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Domain_name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Display_name</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.9" customHeight="1" s="5">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>exiledonline</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>THE EXILED Onine</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>377306</v>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>THE EXILED – MANKIND'S ONLY ALTERNATIVE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/w-h-auden-the-worst-famous-poet-of-the-20th-century/feed/</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+    <row r="2" ht="14.9" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>chronicletimes</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Chronicle Times</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2228103</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>The Chronicle Times are protected under U.S. Copyright laws. Reproduction or transmission by any means is prohibited without written permission of the Chronicle Times.</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/opinion/feed/</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.9" customHeight="1" s="4">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/news/featured-stories/feed/</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>top</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="5">
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/vanity-fair-profiles-the-exile/feed/</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+    <row r="4" ht="14.9" customHeight="1" s="4">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/opinion/capitol-letters/feed/</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.9" customHeight="1" s="4">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/records/births/feed/</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>top</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="5">
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/feed/</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+    <row r="6" ht="14.9" customHeight="1" s="4">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/news/agriculture/feed/</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.9" customHeight="1" s="4">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/news/student-news/scholarships/feed/</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.9" customHeight="1" s="4">
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/sports/feed/</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.9" customHeight="1" s="4">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/records/obituary/feed/</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.9" customHeight="1" s="4">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/opinion/letter-to-the-editor/feed/</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.9" customHeight="1" s="4">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/news/feed/</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>top</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="5">
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/cat/radio-war-nerd/feed/</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+    <row r="12" ht="14.9" customHeight="1" s="4">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/records/feed/</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>top</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="5">
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/cat/featured/feed/</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="5">
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/war-nerd-glory-to-the-french/feed/</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="5">
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/anne-applebaum-professional-mourner/feed/</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="5">
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/the-exile-guide-to-aging/feed/</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="5">
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/spot-the-chechen/feed/</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="5">
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/search/Gary+Brecher/feed/rss2/</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="5">
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/paraguay-a-brief-history-of-national-suicide/feed/</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="5">
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/yeltsin-a-revolting-lie/feed/</t>
-        </is>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>politics</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="5">
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/ukraine-the-gogolean-bordello/feed/</t>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="5">
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>https://exiledonline.com/cat/war-nerd/feed/</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" s="5"/>
-    <row r="17" ht="13.8" customHeight="1" s="5"/>
-    <row r="18" ht="13.8" customHeight="1" s="5"/>
-    <row r="19" ht="13.8" customHeight="1" s="5"/>
-    <row r="20" ht="13.8" customHeight="1" s="5"/>
-    <row r="21" ht="13.8" customHeight="1" s="5"/>
-    <row r="22" ht="13.8" customHeight="1" s="5"/>
-    <row r="23" ht="13.8" customHeight="1" s="5"/>
-    <row r="24" ht="13.8" customHeight="1" s="5"/>
-    <row r="25" ht="12.8" customHeight="1" s="5"/>
-    <row r="26" ht="13.8" customHeight="1" s="5"/>
-    <row r="27" ht="13.8" customHeight="1" s="5"/>
-    <row r="28" ht="13.8" customHeight="1" s="5"/>
-    <row r="29" ht="13.8" customHeight="1" s="5"/>
-    <row r="30" ht="13.8" customHeight="1" s="5"/>
-    <row r="31" ht="13.8" customHeight="1" s="5"/>
-    <row r="32" ht="13.8" customHeight="1" s="5"/>
-    <row r="33" ht="13.8" customHeight="1" s="5"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="5"/>
+    <row r="13" ht="14.9" customHeight="1" s="4">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/records/police-blotter-and-court-files/feed/</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.9" customHeight="1" s="4">
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.chronicletimes.com/category/news/student-news/feed/</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.9" customHeight="1" s="4"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="https://exiledonline.com/" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="https://www.chronicletimes.com/" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" display="https://www.chronicletimes.com/category/opinion/feed/" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" display="https://www.chronicletimes.com/category/news/featured-stories/feed/" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" display="https://www.chronicletimes.com/category/opinion/capitol-letters/feed/" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" display="https://www.chronicletimes.com/category/records/births/feed/" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F6" display="https://www.chronicletimes.com/category/news/agriculture/feed/" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" display="https://www.chronicletimes.com/category/news/student-news/scholarships/feed/" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" display="https://www.chronicletimes.com/category/sports/feed/" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" display="https://www.chronicletimes.com/category/records/obituary/feed/" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" display="https://www.chronicletimes.com/category/opinion/letter-to-the-editor/feed/" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" display="https://www.chronicletimes.com/category/news/feed/" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" display="https://www.chronicletimes.com/category/records/feed/" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" display="https://www.chronicletimes.com/category/records/police-blotter-and-court-files/feed/" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" display="https://www.chronicletimes.com/category/news/student-news/feed/" r:id="rId14"/>
   </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
